--- a/pred_ohlcv/54_21/2019-10-17 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LINK ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>18003.56673654053</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>17858.16673654053</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>18164.64733654053</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>18164.64733654053</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>18046.74733654052</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>18064.74733654052</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>17204.81963654052</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>5031.483336540525</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5501.522636540525</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6515.522636540525</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10040.07574261788</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>10722.67044261787</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10775.74684261787</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>13948.12594261787</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>19478.32634261787</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>19487.90054261787</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>19534.90054261787</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>19806.47794261787</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>21069.41674261787</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>21304.00744261787</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>21452.91224261787</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>25514.37834261787</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>25414.37834261787</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>25074.00964261788</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24668.63924261788</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24763.86594261787</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>24752.94924261787</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>24802.07504261787</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>24161.70944261787</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>28476.89321057209</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>30801.90311057209</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>30773.07061057209</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>30799.69331057209</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>30788.14631057209</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>30632.74631057209</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>30015.48941057209</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>26317.39881057209</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>22753.93061057209</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>23668.18057691588</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>20918.17277691588</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>21613.02437691588</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>23783.27347691588</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>23627.87347691588</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>32222.66866017889</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>32117.40086017888</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>51460.05506017889</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>52285.75866017889</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>52275.75866017889</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>51853.60936017889</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>52153.60936017889</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>52203.60936017889</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>54401.22895248388</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>57194.82835248388</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>58060.47105248387</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>56882.45840297338</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>59783.74800297339</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>59373.97630297339</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>60022.57680297339</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>59588.27220297338</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>59767.54050297339</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>62075.28160297339</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>61990.12720297339</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>64205.77940297339</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>61923.19100297338</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>58368.46660297339</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>58572.12120297339</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>58336.50000297339</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>57970.37410297339</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>55369.14200297339</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>55369.14200297339</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>55919.23380297339</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>56476.48730297339</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>40014.68530297339</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>39987.89160297339</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>39564.40890297339</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>39407.37910297339</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>37564.46862251362</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>37471.16862251362</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>39424.9960559426</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>44135.2487559426</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>45638.1799559426</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>52256.94419175557</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>53046.98824012782</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>53036.09604012782</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>52880.50584012782</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>51914.17904012782</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>51935.79154012782</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>51958.78774012782</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>55233.35254012782</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>54907.13194012783</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>54432.13144012783</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>47257.10265571366</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>46005.07995571366</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>54269.65725571369</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>55067.07475571369</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>55980.42245571369</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>56117.74095571369</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>58550.23054566771</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>62068.11694566771</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>61050.75373933591</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>61007.73463933591</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>62132.85994153294</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>62086.28294153294</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>60956.21844153294</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>60833.68354153294</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>60865.69174153294</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>61041.53934153293</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>58497.26574153293</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>58502.93034153293</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>24290.52566996291</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>17477.54836996292</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>19009.37636996292</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>18868.03276996292</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>18725.33426996292</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>28563.56346996292</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>24977.80386996292</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>26087.83566996292</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>23441.30896996292</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>21503.74056996292</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>17812.53906996292</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>17248.07526996292</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>17512.78846996292</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>17214.38196996292</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>18690.45216996292</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>18692.10506996292</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>18913.62496996292</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>23779.10526996292</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>23746.20526996292</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>19902.01681899339</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-25418.73358100661</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-25104.44558100661</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-30456.1659810066</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-28851.25482045067</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-27798.30962390979</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-23078.60180945873</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-20112.73390945873</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-21774.56260945874</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-21145.34130945873</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-21341.58970945873</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-21170.50920945873</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-19471.09290945873</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-23760.21310945873</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-25241.34060945873</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-25241.34060945873</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-24460.38200945873</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-21212.22710945873</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-20811.76490945873</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-14929.09940945873</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-59475.79730945873</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-61785.67630945873</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-61785.45970945873</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-65032.98288811042</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-58757.91148811042</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LINK ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>4195.109236540525</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4205.185436540525</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4205.185436540525</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4360.585436540525</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4350.585436540525</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5095.620636540525</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5394.522636540525</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7234.169542617874</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>7245.604742617874</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5778.604742617874</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5890.455342617874</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6674.338542617874</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7093.327042617874</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>7093.327042617874</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7659.320842617874</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>7613.064942617874</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7594.029242617874</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7605.474642617874</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7605.474642617874</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6805.334842617874</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6805.334842617874</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9142.221942617874</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9389.670342617874</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>9389.670342617874</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10413.68384261787</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10436.71104261787</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10252.75234261787</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10068.61954261787</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10041.57574261788</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10029.13444261787</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>10029.13444261787</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10017.54484261788</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>9617.544842617875</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>9724.144742617875</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>9741.774342617875</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>9741.774342617875</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>19487.90054261787</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>19534.90054261787</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>21069.41674261787</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>21304.00744261787</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>21452.91224261787</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>25514.37834261787</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>25414.37834261787</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>25074.00964261788</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24668.63924261788</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24763.86594261787</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>24752.94924261787</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>24802.07504261787</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>24161.70944261787</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>28476.89321057209</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>30801.90311057209</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>30773.07061057209</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>30799.69331057209</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>30788.14631057209</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>30632.74631057209</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>30015.48941057209</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>26317.39881057209</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>22753.93061057209</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>23668.18057691588</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>20918.17277691588</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>21613.02437691588</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>23783.27347691588</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>23627.87347691588</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>32222.66866017889</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>32117.40086017888</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>51460.05506017889</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>57818.36466017889</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>57818.36466017889</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>54833.81926017888</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>54833.81926017888</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>52285.75866017889</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>52275.75866017889</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>51853.60936017889</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>52153.60936017889</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>52203.60936017889</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>52438.11746017889</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>56140.09396017889</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>56140.09396017889</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>52079.00835248388</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>58060.47105248387</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>56882.45840297338</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>59783.74800297339</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>59373.97630297339</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>60022.57680297339</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>59588.27220297338</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>59767.54050297339</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>62075.28160297339</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>61990.12720297339</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>64205.77940297339</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>61923.19100297338</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>37564.46862251362</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>37471.16862251362</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>39424.9960559426</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>44135.2487559426</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>45638.1799559426</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>52256.94419175557</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>53046.98824012782</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>53036.09604012782</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>52880.50584012782</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>51914.17904012782</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>51935.79154012782</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>51958.78774012782</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>55233.35254012782</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>54907.13194012783</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>54432.13144012783</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>47257.10265571366</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>46005.07995571366</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>54269.65725571369</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>55067.07475571369</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>55980.42245571369</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>56117.74095571369</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>58550.23054566771</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>62068.11694566771</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>61050.75373933591</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>61007.73463933591</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>62132.85994153294</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>62086.28294153294</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>60956.21844153294</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>60833.68354153294</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>60865.69174153294</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>61041.53934153293</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>58497.26574153293</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>58502.93034153293</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>22224.40346996291</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>24290.52566996291</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>28002.35626996291</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>31237.13196996292</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>19598.32026996292</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>18823.52086996292</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>17477.54836996292</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>19009.37636996292</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>18725.33426996292</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>28563.56346996292</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>24977.80386996292</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>26087.83566996292</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>23441.30896996292</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>21503.74056996292</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>17812.53906996292</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>17248.07526996292</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>17512.78846996292</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>17214.38196996292</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>18690.45216996292</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>18692.10506996292</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>18913.62496996292</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>23779.10526996292</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>23746.20526996292</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>19902.01681899339</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-25418.73358100661</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-25104.44558100661</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-30456.1659810066</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-31444.88352045067</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-31594.88352045067</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-31594.88352045067</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-31794.67002045067</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-32767.53452045067</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-31045.39342045067</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-30978.44472045067</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-28237.94052390979</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-27696.24852390979</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-23469.88182390979</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-24322.77082390979</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-24305.40368254126</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-24433.52598254126</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-24482.61948254126</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-24417.24328254126</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-24417.24328254126</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-25338.47638254126</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-30547.49926195711</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-30725.89346195711</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-30317.94666195711</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-30437.64056195711</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-30407.65100945873</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-31328.80050945873</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-31285.72870945873</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-31153.10480945873</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-30741.53360945873</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-30841.33930945873</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-30498.33930945873</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-30535.14940945873</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-28872.77410945873</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-27547.87340945873</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-27547.87340945873</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-27171.96970945874</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-27171.96970945874</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-27074.28580945874</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-26503.20580945873</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-22046.43890945873</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-22046.43890945873</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-23078.60180945873</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-20112.73390945873</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-21774.56260945874</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-21145.34130945873</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-21341.58970945873</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-21170.50920945873</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-19471.09290945873</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-23760.21310945873</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-25241.34060945873</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-25241.34060945873</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-24460.38200945873</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-21212.22710945873</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-20811.76490945873</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-14929.09940945873</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-59475.79730945873</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-61785.67630945873</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-61785.45970945873</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-65032.98288811042</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
